--- a/Team-Data/2007-08/2-1-2007-08.xlsx
+++ b/Team-Data/2007-08/2-1-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
@@ -777,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
         <v>6</v>
@@ -786,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -795,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -950,13 +1017,13 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
@@ -977,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
@@ -986,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383</v>
+        <v>0.391</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,10 +1115,10 @@
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>6.2</v>
@@ -1060,10 +1127,10 @@
         <v>17.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
         <v>25.4</v>
@@ -1072,22 +1139,22 @@
         <v>0.704</v>
       </c>
       <c r="R4" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
         <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U4" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V4" t="n">
         <v>15.2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
@@ -1099,16 +1166,16 @@
         <v>22.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
         <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.3</v>
+        <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1126,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1138,10 +1205,10 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
@@ -1153,22 +1220,22 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
         <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1329,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1341,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
@@ -1350,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
@@ -1362,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1539,22 @@
         <v>-0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1502,16 +1569,16 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO6" t="n">
         <v>16</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1523,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="AU6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
@@ -1532,7 +1599,7 @@
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="n">
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
@@ -1681,7 +1748,7 @@
         <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
         <v>17</v>
@@ -1690,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1723,7 +1790,7 @@
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1845,7 +1912,7 @@
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>20</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1887,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,7 +2100,7 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2048,10 +2115,10 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2060,10 +2127,10 @@
         <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
@@ -2075,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="J10" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.357</v>
+        <v>0.354</v>
       </c>
       <c r="O10" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R10" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
         <v>42.2</v>
       </c>
       <c r="U10" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V10" t="n">
         <v>13.5</v>
@@ -2182,37 +2249,37 @@
         <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
         <v>22.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.6</v>
+        <v>109.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,31 +2297,31 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
         <v>3</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2325,43 +2392,43 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L11" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M11" t="n">
         <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P11" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S11" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T11" t="n">
         <v>44</v>
       </c>
       <c r="U11" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V11" t="n">
         <v>14.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
         <v>5.5</v>
@@ -2373,16 +2440,16 @@
         <v>20.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2394,25 +2461,25 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>26</v>
@@ -2424,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
         <v>8</v>
@@ -2433,31 +2500,31 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.404</v>
+        <v>0.413</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,28 +2571,28 @@
         <v>38.1</v>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
       </c>
       <c r="L12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M12" t="n">
         <v>23.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
         <v>18.3</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R12" t="n">
         <v>11.6</v>
@@ -2537,7 +2604,7 @@
         <v>44.6</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.6</v>
@@ -2549,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
         <v>24.4</v>
@@ -2564,19 +2631,19 @@
         <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2594,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2624,10 +2691,10 @@
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
         <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J13" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.328</v>
+        <v>0.33</v>
       </c>
       <c r="O13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P13" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
         <v>9.6</v>
       </c>
       <c r="S13" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T13" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="V13" t="n">
         <v>14.6</v>
@@ -2728,25 +2795,25 @@
         <v>6.7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.8</v>
+        <v>-4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,22 +2825,22 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
@@ -2797,7 +2864,7 @@
         <v>21</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -2806,22 +2873,22 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -2850,43 +2917,43 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.644</v>
+        <v>0.636</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="P14" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="Q14" t="n">
         <v>0.749</v>
@@ -2898,46 +2965,46 @@
         <v>33.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.2</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>9</v>
@@ -2964,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>18</v>
@@ -2979,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>24</v>
@@ -2997,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3143,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
@@ -3185,7 +3252,7 @@
         <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -3214,22 +3281,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="n">
-        <v>0.196</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J16" t="n">
         <v>77.2</v>
@@ -3244,22 +3311,22 @@
         <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O16" t="n">
         <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.708</v>
+        <v>0.705</v>
       </c>
       <c r="R16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
         <v>38.4</v>
@@ -3268,52 +3335,52 @@
         <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
         <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y16" t="n">
         <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA16" t="n">
         <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
         <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,16 +3389,16 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3343,7 +3410,7 @@
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV16" t="n">
         <v>14</v>
@@ -3352,7 +3419,7 @@
         <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -3474,37 +3541,37 @@
         <v>-6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK17" t="n">
         <v>18</v>
       </c>
-      <c r="AK17" t="n">
-        <v>19</v>
-      </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3516,7 +3583,7 @@
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3528,13 +3595,13 @@
         <v>16</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
@@ -3543,7 +3610,7 @@
         <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -3578,70 +3645,70 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.217</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R18" t="n">
         <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
         <v>18.9</v>
       </c>
       <c r="V18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
         <v>7.4</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
         <v>23.7</v>
@@ -3650,13 +3717,13 @@
         <v>18.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>94</v>
+        <v>93.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.3</v>
+        <v>-8</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,13 +3738,13 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3686,40 +3753,40 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3728,10 +3795,10 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.435</v>
+        <v>0.422</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J19" t="n">
         <v>77.8</v>
@@ -3787,7 +3854,7 @@
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
         <v>0.332</v>
@@ -3796,16 +3863,16 @@
         <v>20.7</v>
       </c>
       <c r="P19" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="n">
         <v>0.714</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
         <v>42.4</v>
@@ -3826,19 +3893,19 @@
         <v>4.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,7 +3932,7 @@
         <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
         <v>25</v>
@@ -3883,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>11</v>
@@ -3892,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>0.696</v>
+        <v>0.711</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,19 +4027,19 @@
         <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.379</v>
+        <v>0.375</v>
       </c>
       <c r="O20" t="n">
         <v>15.3</v>
@@ -3981,22 +4048,22 @@
         <v>19.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
         <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U20" t="n">
         <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
@@ -4014,22 +4081,22 @@
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
       </c>
       <c r="AF20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG20" t="n">
         <v>3</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>4</v>
       </c>
       <c r="AH20" t="n">
         <v>12</v>
@@ -4044,13 +4111,13 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN20" t="n">
         <v>6</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4062,7 +4129,7 @@
         <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
         <v>12</v>
@@ -4071,19 +4138,19 @@
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>0.304</v>
+        <v>0.311</v>
       </c>
       <c r="H21" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>80.3</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
         <v>5.6</v>
@@ -4154,55 +4221,55 @@
         <v>16.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.331</v>
+        <v>0.336</v>
       </c>
       <c r="O21" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R21" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S21" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="V21" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC21" t="n">
         <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,31 +4281,31 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>19</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>26</v>
@@ -4247,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT21" t="n">
         <v>17</v>
@@ -4256,10 +4323,10 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.625</v>
+        <v>0.617</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J22" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L22" t="n">
         <v>8.9</v>
       </c>
       <c r="M22" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
         <v>9.800000000000001</v>
@@ -4363,13 +4430,13 @@
         <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
         <v>21.1</v>
@@ -4378,10 +4445,10 @@
         <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4396,13 +4463,13 @@
         <v>8</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4420,7 +4487,7 @@
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4441,7 +4508,7 @@
         <v>15</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.383</v>
+        <v>0.391</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
         <v>3.7</v>
       </c>
       <c r="M23" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="O23" t="n">
         <v>18.1</v>
@@ -4533,40 +4600,40 @@
         <v>13.3</v>
       </c>
       <c r="S23" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
         <v>-2</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4605,7 +4672,7 @@
         <v>14</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
@@ -4614,19 +4681,19 @@
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
@@ -4638,7 +4705,7 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>6</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH24" t="n">
         <v>28</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>2</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4817,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="n">
         <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>0.587</v>
+        <v>0.578</v>
       </c>
       <c r="H25" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I25" t="n">
         <v>35.7</v>
       </c>
       <c r="J25" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L25" t="n">
         <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R25" t="n">
         <v>10.4</v>
@@ -4906,13 +4973,13 @@
         <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y25" t="n">
         <v>3.8</v>
@@ -4921,19 +4988,19 @@
         <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
         <v>96.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -4948,10 +5015,10 @@
         <v>22</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4963,16 +5030,16 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
@@ -4984,13 +5051,13 @@
         <v>14</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -5034,85 +5101,85 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.467</v>
+        <v>0.455</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P26" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
         <v>10</v>
       </c>
       <c r="S26" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T26" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="U26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V26" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5124,13 +5191,13 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5139,7 +5206,7 @@
         <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
@@ -5154,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
         <v>23</v>
@@ -5163,7 +5230,7 @@
         <v>29</v>
       </c>
       <c r="AU26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV26" t="n">
         <v>29</v>
@@ -5172,16 +5239,16 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
@@ -5306,25 +5373,25 @@
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
         <v>13</v>
       </c>
       <c r="AL27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
         <v>25</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
         <v>13</v>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,16 +5564,16 @@
         <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
       </c>
       <c r="AM28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN28" t="n">
         <v>26</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>24</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5536,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5545,13 +5612,13 @@
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
         <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.543</v>
+        <v>0.556</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,7 +5665,7 @@
         <v>37.4</v>
       </c>
       <c r="J29" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.459</v>
@@ -5607,7 +5674,7 @@
         <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N29" t="n">
         <v>0.423</v>
@@ -5619,13 +5686,13 @@
         <v>20</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
         <v>40.6</v>
@@ -5634,43 +5701,43 @@
         <v>22.8</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB29" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -5682,7 +5749,7 @@
         <v>10</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5718,13 +5785,13 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>6</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -5762,88 +5829,88 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.617</v>
+        <v>0.609</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.492</v>
+        <v>0.493</v>
       </c>
       <c r="L30" t="n">
         <v>4.1</v>
       </c>
       <c r="M30" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="Q30" t="n">
         <v>0.753</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
         <v>29</v>
       </c>
       <c r="T30" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>105</v>
+        <v>105.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5861,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,10 +5937,10 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
@@ -5882,13 +5949,13 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5900,22 +5967,22 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.533</v>
+        <v>0.545</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J31" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
         <v>19.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
       <c r="O31" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.795</v>
@@ -5989,13 +6056,13 @@
         <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T31" t="n">
         <v>42.6</v>
       </c>
       <c r="U31" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
@@ -6004,31 +6071,31 @@
         <v>7.7</v>
       </c>
       <c r="X31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6037,16 +6104,16 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>20</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
@@ -6064,34 +6131,34 @@
         <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
       </c>
       <c r="AU31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-1-2007-08</t>
+          <t>2008-02-01</t>
         </is>
       </c>
     </row>
